--- a/input/mappings/scaling/MEIC_scaling_mapping.xlsx
+++ b/input/mappings/scaling/MEIC_scaling_mapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="-20" windowWidth="15300" windowHeight="13400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="150">
   <si>
     <t>1A1a_Electricity-public</t>
   </si>
@@ -81,12 +81,6 @@
     <t>1A3dii_Domestic-naviation</t>
   </si>
   <si>
-    <t>1A3eii_Other-unspecified-transp</t>
-  </si>
-  <si>
-    <t>1A4bi_Residential-stationary</t>
-  </si>
-  <si>
     <t>1A4c_Agriculture-forestry-fishing</t>
   </si>
   <si>
@@ -516,16 +510,19 @@
     <t>1B2_Fugitive-petr-and-gas</t>
   </si>
   <si>
-    <t>The MEICfile suggests there is data in place but these sectors don't appear to have a MEIC category.</t>
-  </si>
-  <si>
-    <t>Most of the data is 0 except for the "other" category. For the time being, we'll leaving the scaling sector in the map.</t>
-  </si>
-  <si>
     <t>Industrial_Combustion</t>
   </si>
   <si>
     <t>Other_Product</t>
+  </si>
+  <si>
+    <t>2D3_Chemical-products-manufacture-processing</t>
+  </si>
+  <si>
+    <t>1A4b_Residential_Commertial</t>
+  </si>
+  <si>
+    <t>1A3eii_Other-transp</t>
   </si>
 </sst>
 </file>
@@ -723,7 +720,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="71">
+  <cellStyleXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -795,8 +792,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -847,9 +860,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
@@ -865,7 +875,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="71">
+  <cellStyles count="87">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -901,6 +911,14 @@
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -936,6 +954,14 @@
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1235,32 +1261,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69:C72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="29.1640625" customWidth="1"/>
-    <col min="3" max="4" width="33.5" customWidth="1"/>
-    <col min="5" max="5" width="69.5" style="19" customWidth="1"/>
+    <col min="3" max="3" width="33.5" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" customWidth="1"/>
+    <col min="5" max="5" width="69.5" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="14">
       <c r="A1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" t="s">
         <v>142</v>
       </c>
-      <c r="B1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D1" t="s">
-        <v>144</v>
-      </c>
+      <c r="E1"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
@@ -1273,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E2" s="14"/>
     </row>
@@ -1281,14 +1310,14 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>149</v>
+      <c r="B3" s="20" t="s">
+        <v>145</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E3" s="14"/>
     </row>
@@ -1303,810 +1332,655 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E4" s="14"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E5" s="14"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" t="s">
-        <v>47</v>
+      <c r="A6" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>110</v>
       </c>
       <c r="E6" s="14"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" t="s">
-        <v>47</v>
+      <c r="A7" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>4</v>
       </c>
       <c r="E7" s="14"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" t="s">
-        <v>47</v>
+      <c r="A8" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>5</v>
       </c>
       <c r="E8" s="14"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="A9" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="14"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="14"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="14"/>
+    </row>
+    <row r="12" spans="1:5" s="23" customFormat="1">
+      <c r="A12" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="14"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="14"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="14"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="14"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="14"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="14"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A18" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="14"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="14"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
         <v>112</v>
-      </c>
-      <c r="E9" s="14"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="14"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="14"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="14"/>
-    </row>
-    <row r="15" spans="1:5" s="24" customFormat="1">
-      <c r="A15" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="14"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="14"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="14"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="14"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="14"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="14"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A21" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" t="s">
-        <v>51</v>
       </c>
       <c r="E22" s="14"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="E23" s="14"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="D24" t="s">
         <v>113</v>
       </c>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" s="24" customFormat="1">
       <c r="A25" t="s">
-        <v>103</v>
-      </c>
-      <c r="B25" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" t="s">
-        <v>103</v>
-      </c>
-      <c r="D25" t="s">
-        <v>113</v>
-      </c>
-      <c r="E25" s="14"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>103</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="E25" s="25"/>
+    </row>
+    <row r="26" spans="1:5" s="24" customFormat="1">
+      <c r="A26"/>
       <c r="B26" t="s">
-        <v>103</v>
+        <v>148</v>
       </c>
       <c r="C26" t="s">
-        <v>103</v>
-      </c>
-      <c r="D26" t="s">
-        <v>113</v>
-      </c>
-      <c r="E26" s="14"/>
+        <v>102</v>
+      </c>
+      <c r="D26"/>
+      <c r="E26" s="25"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>103</v>
       </c>
       <c r="B27" t="s">
-        <v>103</v>
+        <v>148</v>
       </c>
       <c r="C27" t="s">
         <v>103</v>
       </c>
       <c r="D27" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E27" s="14"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" t="s">
-        <v>114</v>
-      </c>
       <c r="E28" s="14"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" t="s">
-        <v>17</v>
-      </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="E29" s="14"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" t="s">
-        <v>18</v>
-      </c>
       <c r="C30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="E30" s="14"/>
     </row>
-    <row r="31" spans="1:5" s="25" customFormat="1">
-      <c r="A31" t="s">
-        <v>103</v>
-      </c>
-      <c r="B31" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="C31" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="E31" s="26"/>
-    </row>
-    <row r="32" spans="1:5" s="25" customFormat="1">
-      <c r="A32"/>
-      <c r="B32"/>
-      <c r="C32" t="s">
-        <v>104</v>
-      </c>
-      <c r="D32"/>
-      <c r="E32" s="26"/>
+    <row r="31" spans="1:5">
+      <c r="C31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="14"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="E32" s="14"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="B33" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="C33" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D33" t="s">
+        <v>116</v>
+      </c>
+      <c r="E33" s="14"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" t="s">
         <v>117</v>
       </c>
-      <c r="E33" s="14"/>
-    </row>
-    <row r="34" spans="1:5">
       <c r="E34" s="14"/>
     </row>
     <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
       <c r="C35" t="s">
-        <v>106</v>
+        <v>25</v>
+      </c>
+      <c r="D35" t="s">
+        <v>118</v>
       </c>
       <c r="E35" s="14"/>
     </row>
     <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
       <c r="C36" t="s">
-        <v>146</v>
+        <v>26</v>
+      </c>
+      <c r="D36" t="s">
+        <v>119</v>
       </c>
       <c r="E36" s="14"/>
     </row>
     <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>143</v>
+      </c>
       <c r="C37" t="s">
-        <v>24</v>
+        <v>143</v>
+      </c>
+      <c r="D37" t="s">
+        <v>120</v>
       </c>
       <c r="E37" s="14"/>
     </row>
     <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="C38" t="s">
+        <v>143</v>
+      </c>
+      <c r="D38" t="s">
+        <v>121</v>
+      </c>
       <c r="E38" s="14"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" t="s">
-        <v>25</v>
+        <v>80</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>143</v>
       </c>
       <c r="C39" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="D39" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E39" s="14"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="B40" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="C40" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="D40" t="s">
-        <v>119</v>
-      </c>
-      <c r="E40" s="14"/>
+        <v>123</v>
+      </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>147</v>
       </c>
       <c r="D41" t="s">
-        <v>120</v>
-      </c>
-      <c r="E41" s="14"/>
+        <v>125</v>
+      </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="B42" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="D42" t="s">
-        <v>121</v>
-      </c>
-      <c r="E42" s="14"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" t="s">
-        <v>29</v>
-      </c>
-      <c r="B43" s="22" t="s">
-        <v>145</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="24" customFormat="1">
+      <c r="A43" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>146</v>
       </c>
       <c r="C43" t="s">
-        <v>145</v>
-      </c>
-      <c r="D43" t="s">
-        <v>122</v>
-      </c>
-      <c r="E43" s="14"/>
+        <v>84</v>
+      </c>
+      <c r="E43" s="26"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>30</v>
-      </c>
-      <c r="B44" s="22" t="s">
-        <v>145</v>
+        <v>89</v>
+      </c>
+      <c r="B44" t="s">
+        <v>89</v>
       </c>
       <c r="C44" t="s">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="D44" t="s">
-        <v>123</v>
-      </c>
-      <c r="E44" s="14"/>
+        <v>126</v>
+      </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>82</v>
-      </c>
-      <c r="B45" s="22" t="s">
-        <v>145</v>
+        <v>91</v>
+      </c>
+      <c r="B45" t="s">
+        <v>29</v>
       </c>
       <c r="C45" t="s">
-        <v>145</v>
-      </c>
-      <c r="D45" t="s">
-        <v>124</v>
-      </c>
-      <c r="E45" s="14"/>
+        <v>91</v>
+      </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>82</v>
-      </c>
-      <c r="B46" s="22" t="s">
-        <v>145</v>
+        <v>92</v>
+      </c>
+      <c r="B46" t="s">
+        <v>92</v>
       </c>
       <c r="C46" t="s">
-        <v>145</v>
+        <v>92</v>
       </c>
       <c r="D46" t="s">
-        <v>124</v>
-      </c>
-      <c r="E46" s="14"/>
+        <v>127</v>
+      </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>82</v>
-      </c>
-      <c r="B47" s="22" t="s">
-        <v>145</v>
+        <v>94</v>
+      </c>
+      <c r="B47" t="s">
+        <v>94</v>
       </c>
       <c r="C47" t="s">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c r="D47" t="s">
-        <v>124</v>
-      </c>
-      <c r="E47" s="18"/>
+        <v>128</v>
+      </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>82</v>
-      </c>
-      <c r="B48" s="22" t="s">
-        <v>145</v>
+        <v>32</v>
+      </c>
+      <c r="B48" t="s">
+        <v>32</v>
       </c>
       <c r="C48" t="s">
-        <v>145</v>
-      </c>
-      <c r="D48" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>82</v>
-      </c>
-      <c r="B49" s="22" t="s">
-        <v>145</v>
+        <v>30</v>
+      </c>
+      <c r="B49" t="s">
+        <v>30</v>
       </c>
       <c r="C49" t="s">
-        <v>145</v>
+        <v>30</v>
       </c>
       <c r="D49" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>82</v>
-      </c>
-      <c r="B50" s="22" t="s">
-        <v>145</v>
+        <v>106</v>
+      </c>
+      <c r="B50" t="s">
+        <v>106</v>
       </c>
       <c r="C50" t="s">
-        <v>145</v>
-      </c>
-      <c r="D50" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="B51" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="C51" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="D51" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
+        <v>98</v>
+      </c>
+      <c r="B52" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" t="s">
+        <v>34</v>
+      </c>
+      <c r="D53" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
         <v>107</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B54" t="s">
         <v>107</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C54" t="s">
         <v>107</v>
       </c>
-      <c r="D52" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="s">
-        <v>87</v>
-      </c>
-      <c r="B53" t="s">
-        <v>87</v>
-      </c>
-      <c r="C53" t="s">
-        <v>87</v>
-      </c>
-      <c r="D53" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" s="25" customFormat="1">
-      <c r="A54" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="B54" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="C54" t="s">
-        <v>86</v>
-      </c>
-      <c r="E54" s="27"/>
-    </row>
-    <row r="55" spans="1:5">
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="B55" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="C55" t="s">
-        <v>91</v>
-      </c>
-      <c r="D55" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="B56" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C56" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="B57" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="C57" t="s">
-        <v>94</v>
-      </c>
-      <c r="D57" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="s">
-        <v>96</v>
-      </c>
-      <c r="B58" t="s">
-        <v>96</v>
-      </c>
-      <c r="C58" t="s">
-        <v>96</v>
-      </c>
-      <c r="D58" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="s">
-        <v>34</v>
-      </c>
-      <c r="B59" t="s">
-        <v>34</v>
-      </c>
-      <c r="C59" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="s">
-        <v>32</v>
-      </c>
-      <c r="B60" t="s">
-        <v>32</v>
-      </c>
-      <c r="C60" t="s">
-        <v>32</v>
-      </c>
-      <c r="D60" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="s">
-        <v>108</v>
-      </c>
-      <c r="B61" t="s">
-        <v>108</v>
-      </c>
-      <c r="C61" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="s">
-        <v>35</v>
-      </c>
-      <c r="B62" t="s">
-        <v>35</v>
-      </c>
-      <c r="C62" t="s">
-        <v>35</v>
-      </c>
-      <c r="D62" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="s">
-        <v>100</v>
-      </c>
-      <c r="B63" t="s">
-        <v>100</v>
-      </c>
-      <c r="C63" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="s">
-        <v>36</v>
-      </c>
-      <c r="B64" t="s">
-        <v>36</v>
-      </c>
-      <c r="C64" t="s">
-        <v>36</v>
-      </c>
-      <c r="D64" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
-        <v>109</v>
-      </c>
-      <c r="B65" t="s">
-        <v>109</v>
-      </c>
-      <c r="C65" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
         <v>37</v>
-      </c>
-      <c r="B66" t="s">
-        <v>37</v>
-      </c>
-      <c r="C66" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>38</v>
-      </c>
-      <c r="B67" t="s">
-        <v>38</v>
-      </c>
-      <c r="C67" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>39</v>
-      </c>
-      <c r="B68" t="s">
-        <v>39</v>
-      </c>
-      <c r="C68" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2139,36 +2013,36 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" t="s">
         <v>133</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>134</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>135</v>
-      </c>
-      <c r="D1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2192,31 +2066,31 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:4" ht="15">
-      <c r="A1" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>139</v>
+      <c r="A1" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>137</v>
       </c>
       <c r="D1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2246,53 +2120,53 @@
   <sheetData>
     <row r="1" spans="1:6" ht="69" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+        <v>39</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B5" s="10"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2321,7 +2195,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B11" s="6"/>
     </row>
@@ -2369,30 +2243,30 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B19" s="10"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B20" s="10"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2403,281 +2277,281 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B26" s="10"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B28" s="10"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B29" s="10"/>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B30" s="10"/>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B35" s="10"/>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B36" s="10"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B45" s="10"/>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B49" s="10"/>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B52" s="10"/>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B54" s="10"/>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B55" s="14"/>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B57" s="10"/>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B59" s="10"/>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B60" s="10"/>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B61" s="10"/>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B62" s="16"/>
     </row>

--- a/input/mappings/scaling/MEIC_scaling_mapping.xlsx
+++ b/input/mappings/scaling/MEIC_scaling_mapping.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="150">
   <si>
     <t>1A1a_Electricity-public</t>
   </si>
@@ -720,8 +720,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="87">
+  <cellStyleXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -875,7 +877,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="87">
+  <cellStyles count="89">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -919,6 +921,7 @@
     <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -962,6 +965,7 @@
     <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1264,8 +1268,8 @@
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1734,9 +1738,6 @@
       <c r="B38" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="C38" t="s">
-        <v>143</v>
-      </c>
       <c r="D38" t="s">
         <v>121</v>
       </c>
@@ -1747,9 +1748,6 @@
         <v>80</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="C39" t="s">
         <v>143</v>
       </c>
       <c r="D39" t="s">

--- a/input/mappings/scaling/MEIC_scaling_mapping.xlsx
+++ b/input/mappings/scaling/MEIC_scaling_mapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14640"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="150">
   <si>
     <t>1A1a_Electricity-public</t>
   </si>
@@ -1268,8 +1268,8 @@
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1514,9 +1514,6 @@
       <c r="A19" t="s">
         <v>49</v>
       </c>
-      <c r="B19" t="s">
-        <v>49</v>
-      </c>
       <c r="C19" t="s">
         <v>49</v>
       </c>
@@ -1526,9 +1523,6 @@
       <c r="A20" t="s">
         <v>50</v>
       </c>
-      <c r="B20" t="s">
-        <v>50</v>
-      </c>
       <c r="C20" t="s">
         <v>50</v>
       </c>
@@ -1568,9 +1562,6 @@
       <c r="A23" t="s">
         <v>17</v>
       </c>
-      <c r="B23" t="s">
-        <v>17</v>
-      </c>
       <c r="C23" t="s">
         <v>17</v>
       </c>
@@ -1578,9 +1569,6 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" t="s">
         <v>18</v>
       </c>
       <c r="C24" t="s">

--- a/input/mappings/scaling/MEIC_scaling_mapping.xlsx
+++ b/input/mappings/scaling/MEIC_scaling_mapping.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14640"/>
+    <workbookView xWindow="18520" yWindow="4960" windowWidth="25360" windowHeight="14640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
@@ -78,9 +78,6 @@
     <t>1A3di_International-shipping</t>
   </si>
   <si>
-    <t>1A3dii_Domestic-naviation</t>
-  </si>
-  <si>
     <t>1A4c_Agriculture-forestry-fishing</t>
   </si>
   <si>
@@ -203,10 +200,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>1A3dii_Domestic-naviation (shipping)</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>inland waterway</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -523,6 +516,12 @@
   </si>
   <si>
     <t>1A3eii_Other-transp</t>
+  </si>
+  <si>
+    <t>1A3dii_Domestic-navigation</t>
+  </si>
+  <si>
+    <t>1A3dii_Domestic-navigation (shipping)</t>
   </si>
 </sst>
 </file>
@@ -1267,9 +1266,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1282,16 +1281,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14">
       <c r="A1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" t="s">
         <v>140</v>
-      </c>
-      <c r="B1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D1" t="s">
-        <v>142</v>
       </c>
       <c r="E1"/>
     </row>
@@ -1306,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E2" s="14"/>
     </row>
@@ -1315,13 +1314,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E3" s="14"/>
     </row>
@@ -1336,19 +1335,19 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E4" s="14"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" s="14"/>
     </row>
@@ -1357,13 +1356,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E6" s="14"/>
     </row>
@@ -1372,7 +1371,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>4</v>
@@ -1384,7 +1383,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>5</v>
@@ -1396,7 +1395,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>6</v>
@@ -1408,7 +1407,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>7</v>
@@ -1420,7 +1419,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>8</v>
@@ -1444,7 +1443,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>10</v>
@@ -1456,7 +1455,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>11</v>
@@ -1468,7 +1467,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>12</v>
@@ -1480,7 +1479,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>13</v>
@@ -1492,7 +1491,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>14</v>
@@ -1504,7 +1503,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>15</v>
@@ -1512,34 +1511,34 @@
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E19" s="14"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E20" s="14"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D21" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E21" s="14"/>
     </row>
@@ -1554,7 +1553,7 @@
         <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E22" s="14"/>
     </row>
@@ -1569,54 +1568,54 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="D24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E24" s="14"/>
     </row>
     <row r="25" spans="1:5" s="24" customFormat="1">
       <c r="A25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E25" s="25"/>
     </row>
     <row r="26" spans="1:5" s="24" customFormat="1">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C26" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D26"/>
       <c r="E26" s="25"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B27" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D27" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E27" s="14"/>
     </row>
@@ -1625,19 +1624,19 @@
     </row>
     <row r="29" spans="1:5">
       <c r="C29" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E29" s="14"/>
     </row>
     <row r="30" spans="1:5">
       <c r="C30" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E30" s="14"/>
     </row>
     <row r="31" spans="1:5">
       <c r="C31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E31" s="14"/>
     </row>
@@ -1646,327 +1645,327 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D33" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E33" s="14"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D34" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E34" s="14"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D35" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E35" s="14"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D36" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E36" s="14"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C37" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D37" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E37" s="14"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D38" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E38" s="14"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D39" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E39" s="14"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C40" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D40" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B41" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C41" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D41" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C42" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D42" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="24" customFormat="1">
       <c r="A43" s="24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C43" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E43" s="26"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B44" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C44" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D44" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C45" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D46" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D47" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D49" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B50" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C50" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D51" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B52" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C52" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D53" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B54" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C54" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1999,36 +1998,36 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" t="s">
         <v>131</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>132</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>133</v>
-      </c>
-      <c r="D1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2053,30 +2052,30 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15">
       <c r="A1" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2093,8 +2092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2106,53 +2105,53 @@
   <sheetData>
     <row r="1" spans="1:6" ht="69" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="D1" s="27" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E1" s="27"/>
       <c r="F1" s="27"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1">
       <c r="A4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="10"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2181,7 +2180,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" s="6"/>
     </row>
@@ -2229,30 +2228,30 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B19" s="10"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B20" s="10"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2263,281 +2262,281 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="7" t="s">
-        <v>55</v>
+        <v>149</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B26" s="10"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" s="10"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" s="10"/>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B30" s="10"/>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B35" s="10"/>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B36" s="10"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B45" s="10"/>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B49" s="10"/>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B52" s="10"/>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B54" s="10"/>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B55" s="14"/>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B57" s="10"/>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B59" s="10"/>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B60" s="10"/>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B61" s="10"/>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B62" s="16"/>
     </row>
